--- a/LightningAccountFunctionalE2E001.xlsx
+++ b/LightningAccountFunctionalE2E001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irfan\Documents\GitHub\Irfan123\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5641D10D-7F27-408B-A768-AEC0C167AC40}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98832A3A-B96E-4FA3-8AFA-F95660E61928}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/LightningAccountFunctionalE2E001.xlsx
+++ b/LightningAccountFunctionalE2E001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irfan\Documents\GitHub\Irfan123\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98832A3A-B96E-4FA3-8AFA-F95660E61928}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8838078-EE04-4D05-98D3-559D8D0E1ADD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -618,7 +618,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
